--- a/GATEWAY/A1#MCASAS/MCA/LAB2000/20/report-checklist_MCA_LAB.xlsx
+++ b/GATEWAY/A1#MCASAS/MCA/LAB2000/20/report-checklist_MCA_LAB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="143">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -545,24 +545,6 @@
     <t xml:space="preserve">4) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile </t>
   </si>
   <si>
-    <t>2023-02-24T14:59:17Z</t>
-  </si>
-  <si>
-    <t>2023-02-24T14:58:56Z</t>
-  </si>
-  <si>
-    <t>b4cb9c81e4ac1673</t>
-  </si>
-  <si>
-    <t>ec5937ec104b75da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.844058695c9ddd088f3afdc4e917d64d482c293dd8036cae4e45ccf935df5fb4.ca84f797b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.3b2e59a6e381b467f37b23357e2a786e0ccf04b205c4f4c85da19139115f84f0.db77382c73^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>La nostra libreria effettua un controllo sui dati che vengono passati per comporre il token, qualora ci fossero dati obbligatori mancanti il programma non effettua la chiamata al gateway ma ritorna un messaggio di errore informando l'utente che nella configurazione mancano dei dati obbligatori</t>
   </si>
   <si>
@@ -620,15 +602,6 @@
     <t>Errore creazione del token: {GATEWAY_MESSAGE}</t>
   </si>
   <si>
-    <t>2023-03-06T13:07:40Z</t>
-  </si>
-  <si>
-    <t>9db1f31bed25ff1b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e932cae83dd7f32d9bc74277861d37c63f6f1ca471070fe0523d9538f067b774.c9f81f2598^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>MCA SAS</t>
   </si>
   <si>
@@ -641,22 +614,46 @@
     <t>subject_application_version: 2.0</t>
   </si>
   <si>
-    <t>2023-05-16T11:50:19Z</t>
+    <t>2023-07-30T14:51:02Z</t>
   </si>
   <si>
-    <t>6a9c69adc1976d30</t>
+    <t>c6c2ad6e2ce59c58</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160112.4.4.4972a14f9cf8feb72f7ec155dc22fd3a3e50de8237b3f45404a62ef38d33a007.9a5a6eea3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160112.4.4.40fa2d0aa4a1f7090a497f4eb060bc4e8a5f361769b6ffab2ef6aa2cf65f633c.44fa5489eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-05-16T11:53:28Z</t>
+    <t>2023-07-30T15:30:47Z</t>
   </si>
   <si>
-    <t>a9d1ad2f34068b24</t>
+    <t>bf7be44c9f8c2e8c</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.160112.4.4.8a01f808b71743701ac4fac20f91cfce502f849305088d0c54a7aa126ee1797f.99907f952a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.160112.4.4.8ca91fdeeb22d4a99dd6f07763f42270e6e43e694fa81241bf15159f7831631d.c4278c486f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-08-02T15:49:34Z</t>
+  </si>
+  <si>
+    <t>31a6e3defa4640b0</t>
+  </si>
+  <si>
+    <t>workflowInstanceId":"2.16.840.1.113883.2.9.2.160112.4.4.8b345301a165005c0978a5147d98a72979b1c36280a518d1757840b5a4a88077.a3023794c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-08-03T13:45:38Z</t>
+  </si>
+  <si>
+    <t>df214c561c5edcd3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.4.4.aff0567153a6f23a70c10951cec8d387d77470e6b2a8a7cb2ce9ce586449d782.7b3f7120d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Il test non si applica per: 1. se l'analizzatore non è interfacciato con il LIS i dati non vengono ricevuti ed i risultati vengono allegati al referto in forma cartacea. 2. I dati di microbiologia sono trattati da ogni laboratorio in maniera diversa, non omogeneizzabile e con rappresentazione dei dati non riportabile nel cda.</t>
   </si>
 </sst>
 </file>
@@ -2854,10 +2851,10 @@
   <dimension ref="A1:T873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18:I28"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -2908,7 +2905,7 @@
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D2" s="51"/>
       <c r="F2" s="27"/>
@@ -2933,7 +2930,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="59" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D3" s="51"/>
       <c r="F3" s="27"/>
@@ -2956,7 +2953,7 @@
       <c r="A4" s="55"/>
       <c r="B4" s="56"/>
       <c r="C4" s="59" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="30"/>
@@ -2980,7 +2977,7 @@
       <c r="A5" s="57"/>
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D5" s="51"/>
       <c r="F5" s="27"/>
@@ -3135,16 +3132,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="38">
-        <v>45062</v>
+        <v>45137</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J10" s="40" t="s">
         <v>44</v>
@@ -3179,16 +3176,16 @@
         <v>30</v>
       </c>
       <c r="F11" s="38">
-        <v>45062</v>
+        <v>45137</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>44</v>
@@ -3223,16 +3220,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="38">
-        <v>45062</v>
+        <v>45140</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>44</v>
@@ -3266,22 +3263,24 @@
       <c r="E13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="38">
-        <v>45062</v>
+      <c r="F13" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
@@ -3311,16 +3310,16 @@
         <v>36</v>
       </c>
       <c r="F14" s="38">
-        <v>45062</v>
+        <v>45141</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>44</v>
@@ -3362,7 +3361,7 @@
         <v>88</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L15" s="40" t="s">
         <v>44</v>
@@ -3371,13 +3370,13 @@
         <v>44</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>88</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="43"/>
@@ -3410,7 +3409,7 @@
         <v>88</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L16" s="40" t="s">
         <v>44</v>
@@ -3419,13 +3418,13 @@
         <v>44</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>44</v>
       </c>
       <c r="P16" s="40" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="43"/>
@@ -3455,7 +3454,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="40" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="40" t="s">
@@ -3465,13 +3464,13 @@
         <v>44</v>
       </c>
       <c r="N17" s="40" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O17" s="40" t="s">
         <v>88</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="43" t="s">
@@ -3506,7 +3505,7 @@
         <v>88</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L18" s="40" t="s">
         <v>44</v>
@@ -3546,7 +3545,7 @@
         <v>88</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
@@ -3584,7 +3583,7 @@
         <v>88</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
@@ -3622,7 +3621,7 @@
         <v>88</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L21" s="40" t="s">
         <v>88</v>
@@ -3666,7 +3665,7 @@
         <v>88</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L22" s="40" t="s">
         <v>44</v>
@@ -3706,7 +3705,7 @@
         <v>88</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
@@ -3744,7 +3743,7 @@
         <v>88</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
@@ -3782,7 +3781,7 @@
         <v>88</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
@@ -3820,7 +3819,7 @@
         <v>88</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
@@ -3858,7 +3857,7 @@
         <v>88</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
@@ -3896,7 +3895,7 @@
         <v>88</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
